--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/87.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/87.xlsx
@@ -479,13 +479,13 @@
         <v>-0.197754957756958</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.317898312841813</v>
+        <v>-1.312728282551905</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1678213517292128</v>
+        <v>-0.1698508185755759</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1294673484291322</v>
+        <v>-0.1332269722632221</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1900519942761564</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.387532386441522</v>
+        <v>-1.385492699258522</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2357208881969218</v>
+        <v>-0.237988342882103</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1334386792364038</v>
+        <v>-0.1354447853133124</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1804495040307886</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.491387067195948</v>
+        <v>-1.490423435455948</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2820730349390003</v>
+        <v>-0.2833622574032727</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1381809154356753</v>
+        <v>-0.1401096389637657</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1685265706602852</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.644213220967544</v>
+        <v>-1.647127476956997</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2923240325852703</v>
+        <v>-0.2912494371903614</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1484085523124907</v>
+        <v>-0.1492743608303996</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1524197292815578</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.738857918364518</v>
+        <v>-1.742566440515426</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.291513705894816</v>
+        <v>-0.2901923623725436</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1657495434882134</v>
+        <v>-0.1647187495360318</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1341009153844712</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.579146177796197</v>
+        <v>-1.583323375384287</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2244551571274703</v>
+        <v>-0.2233864019249251</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.172312459656848</v>
+        <v>-0.1693865232826669</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1177811111558846</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.420198042379422</v>
+        <v>-1.421750073500058</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1481632642332181</v>
+        <v>-0.1489662906832178</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.152306880715217</v>
+        <v>-0.1509008544036719</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1044247773273736</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.150655644220585</v>
+        <v>-1.152839876164585</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.007024795429346881</v>
+        <v>-0.008620627992710088</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1293359441009504</v>
+        <v>-0.1267896202304056</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.09017388763736053</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7793770950872304</v>
+        <v>-0.7797771482641394</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07902167876026638</v>
+        <v>0.07676590445981243</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1165532230650447</v>
+        <v>-0.1143295698225908</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.07008585130252666</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4036468593246949</v>
+        <v>-0.4001996857820595</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1214886375324368</v>
+        <v>0.115552081994802</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07271235903932924</v>
+        <v>-0.07086685825242064</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.0395923158033591</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06603163089545168</v>
+        <v>0.0725638860541772</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1347969758810696</v>
+        <v>0.1285275293787076</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02799445803109826</v>
+        <v>0.02917417688855249</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.00568249728809242</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6068057028543065</v>
+        <v>0.6143687519652136</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05422276193618213</v>
+        <v>0.04561139829600262</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1795722706849666</v>
+        <v>0.1831231076420566</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.06999719944338835</v>
       </c>
       <c r="E14" t="n">
-        <v>1.171073408643973</v>
+        <v>1.179871658439789</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.09262595495123299</v>
+        <v>-0.1000999411285946</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3084507156694775</v>
+        <v>0.3126848551331127</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.154092484398525</v>
       </c>
       <c r="E15" t="n">
-        <v>1.818994569802254</v>
+        <v>1.827167919015161</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2607315119941879</v>
+        <v>-0.2656635544452775</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4901566206792469</v>
+        <v>0.4943104574978822</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2511162802774668</v>
       </c>
       <c r="E16" t="n">
-        <v>2.447097038174539</v>
+        <v>2.459072352616173</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4974169879152152</v>
+        <v>-0.5025154758486684</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6079708212308517</v>
+        <v>0.6140840425874864</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.352619020768384</v>
       </c>
       <c r="E17" t="n">
-        <v>3.05851261691583</v>
+        <v>3.071521645405826</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6320465623298154</v>
+        <v>-0.6400870471664496</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7945532868642561</v>
+        <v>0.7999861258105273</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.456242040198156</v>
       </c>
       <c r="E18" t="n">
-        <v>3.65929174531485</v>
+        <v>3.675879351675664</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7551475970186006</v>
+        <v>-0.7631720213262347</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9363604576937634</v>
+        <v>0.9403989507132169</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5632130664011296</v>
       </c>
       <c r="E19" t="n">
-        <v>4.193206511342616</v>
+        <v>4.209510868373793</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9131481612243763</v>
+        <v>-0.9214645951501923</v>
       </c>
       <c r="G19" t="n">
-        <v>1.088853720500632</v>
+        <v>1.093604716988448</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6696050620892017</v>
       </c>
       <c r="E20" t="n">
-        <v>4.736433464094198</v>
+        <v>4.753895639261466</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.128449772805955</v>
+        <v>-1.137389647266589</v>
       </c>
       <c r="G20" t="n">
-        <v>1.24788653870668</v>
+        <v>1.252363046153406</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.7666147023569451</v>
       </c>
       <c r="E21" t="n">
-        <v>5.196231808883165</v>
+        <v>5.215700090127342</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.285153814307004</v>
+        <v>-1.295525995944819</v>
       </c>
       <c r="G21" t="n">
-        <v>1.424004839672542</v>
+        <v>1.429604124101177</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8459398290551073</v>
       </c>
       <c r="E22" t="n">
-        <v>5.599670837314966</v>
+        <v>5.618552179226597</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.492086430231494</v>
+        <v>-1.500969362816582</v>
       </c>
       <c r="G22" t="n">
-        <v>1.539358859190965</v>
+        <v>1.543858727407146</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.9017422397550491</v>
       </c>
       <c r="E23" t="n">
-        <v>5.871698237324529</v>
+        <v>5.893109842577705</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.672085539022991</v>
+        <v>-1.682866534126261</v>
       </c>
       <c r="G23" t="n">
-        <v>1.700476626070831</v>
+        <v>1.70643654237792</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.9322368172733871</v>
       </c>
       <c r="E24" t="n">
-        <v>6.176002920479811</v>
+        <v>6.196112162835896</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.844456626563535</v>
+        <v>-1.853633758838942</v>
       </c>
       <c r="G24" t="n">
-        <v>1.813944263455801</v>
+        <v>1.817990056715709</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9378300630179928</v>
       </c>
       <c r="E25" t="n">
-        <v>6.387285019667118</v>
+        <v>6.405704986382022</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.979513265044726</v>
+        <v>-1.989045919030269</v>
       </c>
       <c r="G25" t="n">
-        <v>1.916296554724682</v>
+        <v>1.918431145033591</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.920754813838607</v>
       </c>
       <c r="E26" t="n">
-        <v>6.486978563362455</v>
+        <v>6.503996883910086</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.085785785437698</v>
+        <v>-2.093181659042196</v>
       </c>
       <c r="G26" t="n">
-        <v>1.980083135720301</v>
+        <v>1.982630919638937</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8860052117015726</v>
       </c>
       <c r="E27" t="n">
-        <v>6.54036376175844</v>
+        <v>6.557827396973799</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.174007001258719</v>
+        <v>-2.181404334911309</v>
       </c>
       <c r="G27" t="n">
-        <v>2.06200935419737</v>
+        <v>2.06430746989246</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8395140561807454</v>
       </c>
       <c r="E28" t="n">
-        <v>6.650508329688502</v>
+        <v>6.667947144086315</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.233270353268704</v>
+        <v>-2.238649900459657</v>
       </c>
       <c r="G28" t="n">
-        <v>2.092007502273181</v>
+        <v>2.095406494228816</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7873753964053333</v>
       </c>
       <c r="E29" t="n">
-        <v>6.587165603312519</v>
+        <v>6.604673039970605</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.293367392738597</v>
+        <v>-2.298540343124686</v>
       </c>
       <c r="G29" t="n">
-        <v>2.137645685498804</v>
+        <v>2.138660418921986</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7333442067213636</v>
       </c>
       <c r="E30" t="n">
-        <v>6.553984550398527</v>
+        <v>6.573852884819614</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.328366935549814</v>
+        <v>-2.331806808851995</v>
       </c>
       <c r="G30" t="n">
-        <v>2.122042151551263</v>
+        <v>2.122642231316627</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.6793174918439511</v>
       </c>
       <c r="E31" t="n">
-        <v>6.464834013967643</v>
+        <v>6.484077447805819</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.310017051143274</v>
+        <v>-2.313002849489182</v>
       </c>
       <c r="G31" t="n">
-        <v>2.104336148352814</v>
+        <v>2.103258632861723</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.626657924276418</v>
       </c>
       <c r="E32" t="n">
-        <v>6.289350833921326</v>
+        <v>6.306959013897685</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.315763070405045</v>
+        <v>-2.319481082868544</v>
       </c>
       <c r="G32" t="n">
-        <v>2.041882591264194</v>
+        <v>2.042998068005648</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.5754051445767966</v>
       </c>
       <c r="E33" t="n">
-        <v>6.106037415963466</v>
+        <v>6.126110157117279</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.338243430860766</v>
+        <v>-2.338431777064494</v>
       </c>
       <c r="G33" t="n">
-        <v>1.976253429577848</v>
+        <v>1.979246528164211</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.5258039508973646</v>
       </c>
       <c r="E34" t="n">
-        <v>5.866503386217076</v>
+        <v>5.883886718787435</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.381995231952936</v>
+        <v>-2.386776889450662</v>
       </c>
       <c r="G34" t="n">
-        <v>1.892691957238961</v>
+        <v>1.893746111960597</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.4784085453740669</v>
       </c>
       <c r="E35" t="n">
-        <v>5.641527495985136</v>
+        <v>5.66009054741295</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.369585553204258</v>
+        <v>-2.37343789009212</v>
       </c>
       <c r="G35" t="n">
-        <v>1.823948512974707</v>
+        <v>1.825005587792525</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.4331942093321384</v>
       </c>
       <c r="E36" t="n">
-        <v>5.451381052961824</v>
+        <v>5.46951485025091</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.330246747466859</v>
+        <v>-2.337060061883085</v>
       </c>
       <c r="G36" t="n">
-        <v>1.736174801893549</v>
+        <v>1.73608135881573</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.3902737118424414</v>
       </c>
       <c r="E37" t="n">
-        <v>5.088883233047194</v>
+        <v>5.10510582738528</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.269869378763512</v>
+        <v>-2.27498319720192</v>
       </c>
       <c r="G37" t="n">
-        <v>1.64934866202339</v>
+        <v>1.650592622996844</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.3482435801017972</v>
       </c>
       <c r="E38" t="n">
-        <v>4.814401492196813</v>
+        <v>4.834856765950444</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.165070776918313</v>
+        <v>-2.172587834514356</v>
       </c>
       <c r="G38" t="n">
-        <v>1.550091672707235</v>
+        <v>1.554765286646234</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3056082223720492</v>
       </c>
       <c r="E39" t="n">
-        <v>4.520993147943983</v>
+        <v>4.541322857561796</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.14742463569159</v>
+        <v>-2.155499431658361</v>
       </c>
       <c r="G39" t="n">
-        <v>1.43801254105672</v>
+        <v>1.443268714183991</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.2609072205466422</v>
       </c>
       <c r="E40" t="n">
-        <v>4.252186614022964</v>
+        <v>4.27044889554405</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.118371138730598</v>
+        <v>-2.126982502370778</v>
       </c>
       <c r="G40" t="n">
-        <v>1.382012396529916</v>
+        <v>1.383938199961825</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.2133191851499434</v>
       </c>
       <c r="E41" t="n">
-        <v>3.957402904468498</v>
+        <v>3.972326056005675</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.028648993472122</v>
+        <v>-2.037151583529529</v>
       </c>
       <c r="G41" t="n">
-        <v>1.261867959225222</v>
+        <v>1.263706159771675</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.1632690510798302</v>
       </c>
       <c r="E42" t="n">
-        <v>3.702307682169203</v>
+        <v>3.714678669643472</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.933733457154284</v>
+        <v>-1.942124353532736</v>
       </c>
       <c r="G42" t="n">
-        <v>1.157030666105613</v>
+        <v>1.158719941746795</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.1118727257780085</v>
       </c>
       <c r="E43" t="n">
-        <v>3.431620606307094</v>
+        <v>3.445507123699726</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.866386548888984</v>
+        <v>-1.875274591642391</v>
       </c>
       <c r="G43" t="n">
-        <v>1.064157007042911</v>
+        <v>1.066097410955729</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.06104681890619846</v>
       </c>
       <c r="E44" t="n">
-        <v>3.163199525082074</v>
+        <v>3.177667141614889</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.825997968574222</v>
+        <v>-1.834231179758856</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9302968779722196</v>
+        <v>0.9332855964143097</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.01238211664991387</v>
       </c>
       <c r="E45" t="n">
-        <v>2.905387153285598</v>
+        <v>2.918667750720504</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.74274894652679</v>
+        <v>-1.749562990967061</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8096355836433429</v>
+        <v>0.8112138956296152</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.03313546710739717</v>
       </c>
       <c r="E46" t="n">
-        <v>2.656370111188756</v>
+        <v>2.668373166544117</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.694284110197167</v>
+        <v>-1.699289155052802</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7686885349338085</v>
+        <v>0.770550096249717</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.07484157241046806</v>
       </c>
       <c r="E47" t="n">
-        <v>2.356292267256655</v>
+        <v>2.368312843189106</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.647337723882088</v>
+        <v>-1.65219238378436</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6618845570357462</v>
+        <v>0.6624349951660188</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.1128148235718151</v>
       </c>
       <c r="E48" t="n">
-        <v>2.164723737392797</v>
+        <v>2.175046277395522</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.613404746201279</v>
+        <v>-1.618620037982005</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5996631475935811</v>
+        <v>0.5999653775483992</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1476626642105574</v>
       </c>
       <c r="E49" t="n">
-        <v>1.967389477617941</v>
+        <v>1.978928237680392</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.56465812059011</v>
+        <v>-1.5685462286562</v>
       </c>
       <c r="G49" t="n">
-        <v>0.538706139798143</v>
+        <v>0.5383557282563248</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1801302768407672</v>
       </c>
       <c r="E50" t="n">
-        <v>1.854856271011153</v>
+        <v>1.865358396929059</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.491590013880585</v>
+        <v>-1.494584572515038</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4774089407975231</v>
+        <v>0.4769344251679777</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2106788658899017</v>
       </c>
       <c r="E51" t="n">
-        <v>1.678548163793473</v>
+        <v>1.688282304415561</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.434156102128509</v>
+        <v>-1.435163535311236</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4193019468755386</v>
+        <v>0.4189383949009024</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2399621975444589</v>
       </c>
       <c r="E52" t="n">
-        <v>1.560072561456687</v>
+        <v>1.569885544675684</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.394209186361247</v>
+        <v>-1.394320150016156</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3385116458131967</v>
+        <v>0.3383422802346513</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2685438795603292</v>
       </c>
       <c r="E53" t="n">
-        <v>1.383208175916371</v>
+        <v>1.390596019256369</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.356707851146257</v>
+        <v>-1.356897657398075</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2717918282029419</v>
+        <v>0.2721393196485782</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2969466983254538</v>
       </c>
       <c r="E54" t="n">
-        <v>1.331174982052566</v>
+        <v>1.342075701099291</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.33786593053308</v>
+        <v>-1.337622102501899</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2196111694819559</v>
+        <v>0.2169027802733203</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3256883886490105</v>
       </c>
       <c r="E55" t="n">
-        <v>1.208533862512418</v>
+        <v>1.217475197021143</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.301694699128908</v>
+        <v>-1.302415962885817</v>
       </c>
       <c r="G55" t="n">
-        <v>0.163878213755789</v>
+        <v>0.165542668579425</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3544633621873881</v>
       </c>
       <c r="E56" t="n">
-        <v>1.178613096985426</v>
+        <v>1.18842170006015</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.248959222133377</v>
+        <v>-1.24824087847265</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1036512300058052</v>
+        <v>0.1061785732511682</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3832955562138682</v>
       </c>
       <c r="E57" t="n">
-        <v>1.087958711020905</v>
+        <v>1.098568880497538</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.240520144167925</v>
+        <v>-1.241162565327925</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06040752564927138</v>
+        <v>0.06387805996136135</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4115368812227487</v>
       </c>
       <c r="E58" t="n">
-        <v>1.034164699159464</v>
+        <v>1.045747260664643</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.203087431213208</v>
+        <v>-1.203052390059026</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01685821932161697</v>
+        <v>-0.01371911592616326</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.438954100758396</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9253035135013119</v>
+        <v>0.9365780048593089</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.119064583677594</v>
+        <v>-1.117493571931776</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09338225986232369</v>
+        <v>-0.08975696045259739</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4660649635342877</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9011908192799547</v>
+        <v>0.9165490651482233</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.100238723593417</v>
+        <v>-1.099790488829508</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1202310842060438</v>
+        <v>-0.1156713540181359</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4926275033301211</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7684155059408085</v>
+        <v>0.783567885028259</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.070361759509152</v>
+        <v>-1.068986394207516</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1488086054893997</v>
+        <v>-0.1437875001047647</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5188744905725989</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7287503794550919</v>
+        <v>0.7439976616684515</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.064996082775063</v>
+        <v>-1.063489313145245</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2242653508756522</v>
+        <v>-0.2205378480995623</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5442228868798161</v>
       </c>
       <c r="E63" t="n">
-        <v>0.63762877810148</v>
+        <v>0.6540309583547483</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.100060597726326</v>
+        <v>-1.098872118580327</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.23938122876083</v>
+        <v>-0.2350901474216493</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5679962976332985</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5481059294074131</v>
+        <v>0.5690839003775894</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.086304024613784</v>
+        <v>-1.08473885306033</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2898857522734528</v>
+        <v>-0.2837696108206362</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5903364450158244</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4634917623949813</v>
+        <v>0.4865517619427933</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.053791673725429</v>
+        <v>-1.052833882177793</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3223367811419895</v>
+        <v>-0.3152424074682641</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6104981082948632</v>
       </c>
       <c r="E66" t="n">
-        <v>0.414691115004449</v>
+        <v>0.4369261873808976</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.069774820176607</v>
+        <v>-1.069380607192062</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.351193171610709</v>
+        <v>-0.3445382724123471</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6287291761921431</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3867019931017292</v>
+        <v>0.4121360308453588</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.088288229969329</v>
+        <v>-1.087368399672057</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3844092656788819</v>
+        <v>-0.3752795849664298</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.644322021369487</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3074885439775686</v>
+        <v>0.333437978697289</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.103614354779598</v>
+        <v>-1.103227442035507</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3949186918372427</v>
+        <v>-0.3872636596966084</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6563573529215933</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2032206696134148</v>
+        <v>0.2313514161809528</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.145119141859859</v>
+        <v>-1.145127902148405</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.418086734943782</v>
+        <v>-0.4090227563954207</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6644806650269141</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1397436188130683</v>
+        <v>0.1690949655846058</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.193283208282756</v>
+        <v>-1.193661360738301</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4350364332311411</v>
+        <v>-0.426514132524507</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6670533307784929</v>
       </c>
       <c r="E71" t="n">
-        <v>0.08870909784344559</v>
+        <v>0.1151272080003476</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.279865520121732</v>
+        <v>-1.28304258476755</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4958766371793065</v>
+        <v>-0.4885384354743994</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6629861111071238</v>
       </c>
       <c r="E72" t="n">
-        <v>0.002196868312832461</v>
+        <v>0.03140951051573371</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.315680499791723</v>
+        <v>-1.317610683367904</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4896568323120354</v>
+        <v>-0.4828880493625827</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6516570437583337</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.01129251599907301</v>
+        <v>0.0178471237992828</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.306050022584089</v>
+        <v>-1.307910123851907</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5396094576462948</v>
+        <v>-0.5324917232031149</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6327773680841003</v>
       </c>
       <c r="E74" t="n">
-        <v>0.01857568779664625</v>
+        <v>0.04684659898091138</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.346202805132169</v>
+        <v>-1.348302354286896</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5249184537555714</v>
+        <v>-0.5199864113044819</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6073062766142094</v>
       </c>
       <c r="E75" t="n">
-        <v>0.02426695525500835</v>
+        <v>0.05352631899681868</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.396634326240247</v>
+        <v>-1.399309134342791</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4755688282828575</v>
+        <v>-0.4692132389431319</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5759402153329728</v>
       </c>
       <c r="E76" t="n">
-        <v>0.07559202579472184</v>
+        <v>0.1033490000509871</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.342819873705534</v>
+        <v>-1.345316555940987</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4859789711710364</v>
+        <v>-0.4796584229854927</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.54036181335061</v>
       </c>
       <c r="E77" t="n">
-        <v>0.188904898082055</v>
+        <v>0.2164925067597749</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.341139358352898</v>
+        <v>-1.34413099689117</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4317177439205055</v>
+        <v>-0.4257680479500526</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5018686847446366</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2731044114366688</v>
+        <v>0.2983559431689348</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.307390346731543</v>
+        <v>-1.310557191040724</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4333515377342324</v>
+        <v>-0.4290035145195063</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.461564567072191</v>
       </c>
       <c r="E79" t="n">
-        <v>0.365116642125735</v>
+        <v>0.3889154260075468</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.321551353165267</v>
+        <v>-1.319083871891631</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4013925450723319</v>
+        <v>-0.3970474419537876</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4210002989455011</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4674908341159802</v>
+        <v>0.4877811224353384</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.337835269523171</v>
+        <v>-1.338217802122989</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.343580480864711</v>
+        <v>-0.3405946825188028</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3806869204106639</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5659856783286811</v>
+        <v>0.5834113522936764</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.286264910904185</v>
+        <v>-1.287570193897458</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2921225459487249</v>
+        <v>-0.2892112100554529</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3410657462069482</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7014431000108265</v>
+        <v>0.7151821525462774</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.220686850901021</v>
+        <v>-1.219950986663203</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2589619337080065</v>
+        <v>-0.2568127429181889</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3016051598775565</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8567396551522394</v>
+        <v>0.8680623280972363</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.165127640897672</v>
+        <v>-1.165540834507399</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2156496070912</v>
+        <v>-0.2137851256791095</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2617846314841943</v>
       </c>
       <c r="E84" t="n">
-        <v>1.025719781001649</v>
+        <v>1.035439321142828</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.073897995985333</v>
+        <v>-1.07397245843797</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1660970349338496</v>
+        <v>-0.1666138919580313</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2220542185898056</v>
       </c>
       <c r="E85" t="n">
-        <v>1.119708916805805</v>
+        <v>1.125772496527349</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.002768833140534</v>
+        <v>-1.000438596387444</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1314953552274044</v>
+        <v>-0.1312310865229499</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1830445657010592</v>
       </c>
       <c r="E86" t="n">
-        <v>1.284365840258034</v>
+        <v>1.287210013939124</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9263937175051</v>
+        <v>-0.924394911668646</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04674540374251803</v>
+        <v>-0.04720531889115427</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1463798496729284</v>
       </c>
       <c r="E87" t="n">
-        <v>1.382530713602189</v>
+        <v>1.387600000573824</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8260212514474906</v>
+        <v>-0.8234778476731276</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01777366947461672</v>
+        <v>-0.01779849029216217</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1139831323091476</v>
       </c>
       <c r="E88" t="n">
-        <v>1.469635722657711</v>
+        <v>1.474214433470801</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.698624755275252</v>
+        <v>-0.6963134991473436</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03338495558273318</v>
+        <v>0.03278195572118788</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.08704363364499304</v>
       </c>
       <c r="E89" t="n">
-        <v>1.567263298304412</v>
+        <v>1.570695871366139</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5662582554015604</v>
+        <v>-0.562475270798016</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07892093544199368</v>
+        <v>0.07917790390599361</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.0675476097067076</v>
       </c>
       <c r="E90" t="n">
-        <v>1.627281495177396</v>
+        <v>1.628913828943032</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.438155095953322</v>
+        <v>-0.435965023816959</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09191098330680837</v>
+        <v>0.09094151137444499</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.05702330613167993</v>
       </c>
       <c r="E91" t="n">
-        <v>1.67091065222993</v>
+        <v>1.669913439383839</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2779294184570014</v>
+        <v>-0.2737522208689116</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1061449921450773</v>
+        <v>0.1040804841445324</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.05672990015875823</v>
       </c>
       <c r="E92" t="n">
-        <v>1.700761335448558</v>
+        <v>1.699185943558468</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1190674258775895</v>
+        <v>-0.1166802472489538</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1034380629845325</v>
+        <v>0.1050660166058957</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.06562838553923753</v>
       </c>
       <c r="E93" t="n">
-        <v>1.696712622092468</v>
+        <v>1.693737044083196</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03878859356718627</v>
+        <v>0.03922806804254979</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09907835938507917</v>
+        <v>0.0998390444404426</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.08039733513254536</v>
       </c>
       <c r="E94" t="n">
-        <v>1.645086781646028</v>
+        <v>1.64136219896612</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1486601325042477</v>
+        <v>0.1465109417144301</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06025130050354414</v>
+        <v>0.06110688868481664</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.09720282542618483</v>
       </c>
       <c r="E95" t="n">
-        <v>1.554636802414234</v>
+        <v>1.548574682740781</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2333896433158613</v>
+        <v>0.2303585834791348</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01138203085273909</v>
+        <v>0.01196605008910256</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1121967114410906</v>
       </c>
       <c r="E96" t="n">
-        <v>1.43165111152463</v>
+        <v>1.425374364781814</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3126848551331127</v>
+        <v>0.3083485123031139</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02852692366415929</v>
+        <v>-0.02640839388425077</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1218199003483846</v>
       </c>
       <c r="E97" t="n">
-        <v>1.277465652980399</v>
+        <v>1.270505603731037</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3626564610925538</v>
+        <v>0.359647301977191</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04899533785060834</v>
+        <v>-0.0470257329759725</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.124547482788261</v>
       </c>
       <c r="E98" t="n">
-        <v>1.144998409788435</v>
+        <v>1.139661934016163</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3820254590665487</v>
+        <v>0.379476215099822</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08616816224514381</v>
+        <v>-0.08341451154569</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1206994291124206</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9917926435132031</v>
+        <v>0.9887513633398403</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3771182374330045</v>
+        <v>0.3753077778002777</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1265384919587693</v>
+        <v>-0.1241907346285882</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1143875345161038</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8838104068057775</v>
+        <v>0.8825825063613233</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3465229296880127</v>
+        <v>0.3458848886722856</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1407155589214928</v>
+        <v>-0.1377516612969481</v>
       </c>
     </row>
     <row r="101">
@@ -2759,10 +2759,10 @@
         <v>0.7439640805623605</v>
       </c>
       <c r="F101" t="n">
-        <v>0.347797551671376</v>
+        <v>0.348310028551285</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1334708002944038</v>
+        <v>-0.1311726845993136</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1089131406233076</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6303285376469365</v>
+        <v>0.6288436687384824</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3053320529472965</v>
+        <v>0.3050283629443875</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1949271445369328</v>
+        <v>-0.1948497619881146</v>
       </c>
     </row>
   </sheetData>
